--- a/data/2012_data.xlsx
+++ b/data/2012_data.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00zh0\OneDrive\CAU\2020-1\자연어처리 및 정보검색\과제\Information-Retrieval\Team project\Sentiment-Analysis\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_B4DEFED3A5A9ADCD2E160BB71B5FE56D502F282B" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{8D341D7D-A559-4DA5-B6C3-E2863BC31E17}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="936" yWindow="0" windowWidth="22104" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="281">
   <si>
     <t>title</t>
   </si>
@@ -25,10 +31,547 @@
     <t>lyric</t>
   </si>
   <si>
+    <t>duration</t>
+  </si>
+  <si>
     <t>Call Me Maybe</t>
   </si>
   <si>
+    <t>We Are Young</t>
+  </si>
+  <si>
+    <t>Payphone</t>
+  </si>
+  <si>
+    <t>Lights</t>
+  </si>
+  <si>
+    <t>Glad You Came</t>
+  </si>
+  <si>
+    <t>Stronger (What Doesn't Kill You)</t>
+  </si>
+  <si>
+    <t>We Found Love</t>
+  </si>
+  <si>
+    <t>Starships</t>
+  </si>
+  <si>
+    <t>What Makes You Beautiful</t>
+  </si>
+  <si>
+    <t>Wild Ones</t>
+  </si>
+  <si>
+    <t>Set Fire To The Rain</t>
+  </si>
+  <si>
+    <t>Sexy And I Know It</t>
+  </si>
+  <si>
+    <t>Some Nights</t>
+  </si>
+  <si>
+    <t>Wide Awake</t>
+  </si>
+  <si>
+    <t>Good Feeling</t>
+  </si>
+  <si>
+    <t>Whistle</t>
+  </si>
+  <si>
+    <t>One More Night</t>
+  </si>
+  <si>
+    <t>Drive By</t>
+  </si>
+  <si>
+    <t>Where Have You Been</t>
+  </si>
+  <si>
+    <t>Everybody Talks</t>
+  </si>
+  <si>
+    <t>Take Care</t>
+  </si>
+  <si>
+    <t>Titanium</t>
+  </si>
+  <si>
+    <t>I Won't Give Up</t>
+  </si>
+  <si>
+    <t>It Will Rain</t>
+  </si>
+  <si>
+    <t>Mercy</t>
+  </si>
+  <si>
+    <t>Boyfriend</t>
+  </si>
+  <si>
+    <t>Party Rock Anthem</t>
+  </si>
+  <si>
+    <t>Too Close</t>
+  </si>
+  <si>
+    <t>Part Of Me</t>
+  </si>
+  <si>
+    <t>Young, Wild &amp; Free</t>
+  </si>
+  <si>
+    <t>We Are Never Ever Getting Back Together</t>
+  </si>
+  <si>
+    <t>As Long As You Love Me</t>
+  </si>
+  <si>
+    <t>Turn Me On</t>
+  </si>
+  <si>
+    <t>Moves Like Jagger</t>
+  </si>
+  <si>
+    <t>Blow Me (One Last Kiss)</t>
+  </si>
+  <si>
+    <t>Good Time</t>
+  </si>
+  <si>
+    <t>Give Your Heart A Break</t>
+  </si>
+  <si>
+    <t>Ni**as in Paris</t>
+  </si>
+  <si>
+    <t>The One That Got Away</t>
+  </si>
+  <si>
+    <t>Feel So Close</t>
+  </si>
+  <si>
+    <t>Someone Like You</t>
+  </si>
+  <si>
+    <t>Scream</t>
+  </si>
+  <si>
+    <t>Rack City</t>
+  </si>
+  <si>
+    <t>Domino</t>
+  </si>
+  <si>
+    <t>Gangnam Style</t>
+  </si>
+  <si>
+    <t>International Love</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Without You</t>
+  </si>
+  <si>
+    <t>Ass Back Home</t>
+  </si>
+  <si>
+    <t>Wanted</t>
+  </si>
+  <si>
+    <t>Drunk On You</t>
+  </si>
+  <si>
+    <t>No Lie</t>
+  </si>
+  <si>
+    <t>Want U Back</t>
+  </si>
+  <si>
+    <t>Don't Wake Me Up</t>
+  </si>
+  <si>
+    <t>Dance (A$$)</t>
+  </si>
+  <si>
+    <t>Springsteen</t>
+  </si>
+  <si>
+    <t>Brokenhearted</t>
+  </si>
+  <si>
+    <t>Not Over You</t>
+  </si>
+  <si>
+    <t>Stereo Hearts</t>
+  </si>
+  <si>
+    <t>Back In Time</t>
+  </si>
+  <si>
+    <t>Work Out</t>
+  </si>
+  <si>
+    <t>Rumour Has It</t>
+  </si>
+  <si>
+    <t>Let's Go</t>
+  </si>
+  <si>
+    <t>Good Girl</t>
+  </si>
+  <si>
+    <t>Pontoon</t>
+  </si>
+  <si>
+    <t>Ho Hey</t>
+  </si>
+  <si>
+    <t>Paradise</t>
+  </si>
+  <si>
+    <t>Blown Away</t>
+  </si>
+  <si>
+    <t>Rolling In The Deep</t>
+  </si>
+  <si>
+    <t>Climax</t>
+  </si>
+  <si>
+    <t>Work Hard, Play Hard</t>
+  </si>
+  <si>
+    <t>Let Me Love You (Until You Learn To Love Yourself)</t>
+  </si>
+  <si>
+    <t>Pound The Alarm</t>
+  </si>
+  <si>
+    <t>Come Over</t>
+  </si>
+  <si>
+    <t>Heart Attack</t>
+  </si>
+  <si>
+    <t>Drank In My Cup</t>
+  </si>
+  <si>
+    <t>Birthday Cake</t>
+  </si>
+  <si>
+    <t>So Good</t>
+  </si>
+  <si>
+    <t>50 Ways To Say Goodbye</t>
+  </si>
+  <si>
+    <t>Red Solo Cup</t>
+  </si>
+  <si>
+    <t>Love You Like A Love Song</t>
+  </si>
+  <si>
+    <t>Turn Up The Music</t>
+  </si>
+  <si>
+    <t>Die Young</t>
+  </si>
+  <si>
+    <t>5 O'Clock</t>
+  </si>
+  <si>
+    <t>A Thousand Years</t>
+  </si>
+  <si>
+    <t>You Da One</t>
+  </si>
+  <si>
+    <t>We Run The Night</t>
+  </si>
+  <si>
+    <t>It's Time</t>
+  </si>
+  <si>
+    <t>Cashin' Out</t>
+  </si>
+  <si>
+    <t>I Don't Want This Night To End</t>
+  </si>
+  <si>
+    <t>Diamonds</t>
+  </si>
+  <si>
+    <t>Hard To Love</t>
+  </si>
+  <si>
+    <t>Somethin' 'Bout A Truck</t>
+  </si>
+  <si>
+    <t>Adorn</t>
+  </si>
+  <si>
+    <t>Fly Over States</t>
+  </si>
+  <si>
+    <t>Even If It Breaks Your Heart</t>
+  </si>
+  <si>
+    <t>Burn It Down</t>
+  </si>
+  <si>
     <t>Carly Rae Jepsen</t>
+  </si>
+  <si>
+    <t>fun. Featuring Janelle Monae</t>
+  </si>
+  <si>
+    <t>Maroon 5 Featuring Wiz Khalifa</t>
+  </si>
+  <si>
+    <t>Ellie Goulding</t>
+  </si>
+  <si>
+    <t>The Wanted</t>
+  </si>
+  <si>
+    <t>Kelly Clarkson</t>
+  </si>
+  <si>
+    <t>Rihanna Featuring Calvin Harris</t>
+  </si>
+  <si>
+    <t>Nicki Minaj</t>
+  </si>
+  <si>
+    <t>One Direction</t>
+  </si>
+  <si>
+    <t>Flo Rida Featuring Sia</t>
+  </si>
+  <si>
+    <t>Adele</t>
+  </si>
+  <si>
+    <t>LMFAO</t>
+  </si>
+  <si>
+    <t>fun.</t>
+  </si>
+  <si>
+    <t>Katy Perry</t>
+  </si>
+  <si>
+    <t>Flo Rida</t>
+  </si>
+  <si>
+    <t>Maroon 5</t>
+  </si>
+  <si>
+    <t>Train</t>
+  </si>
+  <si>
+    <t>Drake Featuring Lil Wayne</t>
+  </si>
+  <si>
+    <t>Rihanna</t>
+  </si>
+  <si>
+    <t>Neon Trees</t>
+  </si>
+  <si>
+    <t>Drake Featuring Rihanna</t>
+  </si>
+  <si>
+    <t>David Guetta Featuring Sia</t>
+  </si>
+  <si>
+    <t>Jason Mraz</t>
+  </si>
+  <si>
+    <t>Bruno Mars</t>
+  </si>
+  <si>
+    <t>Kanye West, Big Sean, Pusha T, 2 Chainz</t>
+  </si>
+  <si>
+    <t>Justin Bieber</t>
+  </si>
+  <si>
+    <t>LMFAO Featuring Lauren Bennett &amp; GoonRock</t>
+  </si>
+  <si>
+    <t>Alex Clare</t>
+  </si>
+  <si>
+    <t>Snoop Dogg &amp; Wiz Khalifa Featuring Bruno Mars</t>
+  </si>
+  <si>
+    <t>Taylor Swift</t>
+  </si>
+  <si>
+    <t>Justin Bieber Featuring Big Sean</t>
+  </si>
+  <si>
+    <t>David Guetta Featuring Nicki Minaj</t>
+  </si>
+  <si>
+    <t>Maroon 5 Featuring Christina Aguilera</t>
+  </si>
+  <si>
+    <t>P!nk</t>
+  </si>
+  <si>
+    <t>Owl City &amp; Carly Rae Jepsen</t>
+  </si>
+  <si>
+    <t>Demi Lovato</t>
+  </si>
+  <si>
+    <t>Jay Z Kanye West</t>
+  </si>
+  <si>
+    <t>Calvin Harris</t>
+  </si>
+  <si>
+    <t>Usher</t>
+  </si>
+  <si>
+    <t>Tyga</t>
+  </si>
+  <si>
+    <t>Jessie J</t>
+  </si>
+  <si>
+    <t>PSY</t>
+  </si>
+  <si>
+    <t>Pitbull Featuring Chris Brown</t>
+  </si>
+  <si>
+    <t>Phillip Phillips</t>
+  </si>
+  <si>
+    <t>David Guetta Featuring Usher</t>
+  </si>
+  <si>
+    <t>Gym Class Heroes Featuring Neon Hitch</t>
+  </si>
+  <si>
+    <t>Hunter Hayes</t>
+  </si>
+  <si>
+    <t>Luke Bryan</t>
+  </si>
+  <si>
+    <t>2 Chainz Featuring Drake</t>
+  </si>
+  <si>
+    <t>Cher Lloyd</t>
+  </si>
+  <si>
+    <t>Chris Brown</t>
+  </si>
+  <si>
+    <t>Big Sean Featuring Nicki Minaj</t>
+  </si>
+  <si>
+    <t>Eric Church</t>
+  </si>
+  <si>
+    <t>Karmin</t>
+  </si>
+  <si>
+    <t>Gavin DeGraw</t>
+  </si>
+  <si>
+    <t>Gym Class Heroes Featuring Adam Levine</t>
+  </si>
+  <si>
+    <t>Pitbull</t>
+  </si>
+  <si>
+    <t>J. Cole</t>
+  </si>
+  <si>
+    <t>Calvin Harris Featuring Ne-Yo</t>
+  </si>
+  <si>
+    <t>Carrie Underwood</t>
+  </si>
+  <si>
+    <t>Little Big Town</t>
+  </si>
+  <si>
+    <t>The Lumineers</t>
+  </si>
+  <si>
+    <t>Coldplay</t>
+  </si>
+  <si>
+    <t>Wiz Khalifa</t>
+  </si>
+  <si>
+    <t>Ne-Yo</t>
+  </si>
+  <si>
+    <t>Kenny Chesney</t>
+  </si>
+  <si>
+    <t>Trey Songz</t>
+  </si>
+  <si>
+    <t>Kirko Bangz</t>
+  </si>
+  <si>
+    <t>Rihanna Featuring Chris Brown</t>
+  </si>
+  <si>
+    <t>B.o.B</t>
+  </si>
+  <si>
+    <t>Toby Keith</t>
+  </si>
+  <si>
+    <t>Selena Gomez &amp; The Scene</t>
+  </si>
+  <si>
+    <t>Ke$ha</t>
+  </si>
+  <si>
+    <t>T-Pain Featuring Wiz Khalifa &amp; Lily Allen</t>
+  </si>
+  <si>
+    <t>Christina Perri</t>
+  </si>
+  <si>
+    <t>Jason Aldean</t>
+  </si>
+  <si>
+    <t>Havana Brown Featuring Pitbull</t>
+  </si>
+  <si>
+    <t>Imagine Dragons</t>
+  </si>
+  <si>
+    <t>Ca$h Out</t>
+  </si>
+  <si>
+    <t>Lee Brice</t>
+  </si>
+  <si>
+    <t>Miguel</t>
+  </si>
+  <si>
+    <t>Eli Young Band</t>
+  </si>
+  <si>
+    <t>Linkin Park</t>
   </si>
   <si>
     <t>I threw a wish in the well, don't ask me, I'll never tell
@@ -105,12 +648,6 @@
 So call me, maybe!</t>
   </si>
   <si>
-    <t>We Are Young</t>
-  </si>
-  <si>
-    <t>fun. Featuring Janelle Monae</t>
-  </si>
-  <si>
     <t>Give me a second I
 I need to get my story straight
 My friends are in the bathroomGetting higher than the Empire State
@@ -175,12 +712,6 @@
 So if by the time the bar closes
 And you feel like falling down
 I'll carry you home tonight</t>
-  </si>
-  <si>
-    <t>Payphone</t>
-  </si>
-  <si>
-    <t>Maroon 5 Featuring Wiz Khalifa</t>
   </si>
   <si>
     <t>I'm at a payphone trying to call home
@@ -260,12 +791,6 @@
 Now I'm at a payphone</t>
   </si>
   <si>
-    <t>Lights</t>
-  </si>
-  <si>
-    <t>Ellie Goulding</t>
-  </si>
-  <si>
     <t>I had a way then losing it all on my own
 I had a heart then but the queen has been overthrown
 And I'm not sleeping now, the dark is too hard to beatAnd I'm not keeping now, the strength I need to push me
@@ -305,12 +830,6 @@
 Home (lights, lights, lights, lights, lights, lights)
 Home (lights, lights)
 Home (lights, lights, lights, lights, lights, lights)</t>
-  </si>
-  <si>
-    <t>Glad You Came</t>
-  </si>
-  <si>
-    <t>The Wanted</t>
   </si>
   <si>
     <t>The sun goes down, the stars come out
@@ -361,12 +880,6 @@
 My universe will never be the same
 I'm glad you came
 I'm glad you came</t>
-  </si>
-  <si>
-    <t>Stronger (What Doesn't Kill You)</t>
-  </si>
-  <si>
-    <t>Kelly Clarkson</t>
   </si>
   <si>
     <t>You know the bed feels warmer
@@ -429,12 +942,6 @@
 (When I'm alone)</t>
   </si>
   <si>
-    <t>We Found Love</t>
-  </si>
-  <si>
-    <t>Rihanna Featuring Calvin Harris</t>
-  </si>
-  <si>
     <t>Yellow diamonds in the light
 Now we're standing side by side
 As your shadow crosses mineWhat it takes to come alive
@@ -465,12 +972,6 @@
 We found love in a hopeless place
 We found love in a hopeless place
 We found love in a hopeless place</t>
-  </si>
-  <si>
-    <t>Starships</t>
-  </si>
-  <si>
-    <t>Nicki Minaj</t>
   </si>
   <si>
     <t>Let's go to the beach, each
@@ -542,12 +1043,6 @@
 (We're higher than a motherfucker)</t>
   </si>
   <si>
-    <t>What Makes You Beautiful</t>
-  </si>
-  <si>
-    <t>One Direction</t>
-  </si>
-  <si>
     <t>You're insecure, don't know what for
 You're turning heads when you walk through the do-o-or
 Don't need make-up to cover upBeing the way that you are is enou-ou-ough
@@ -602,12 +1097,6 @@
 You don't know you're beautiful, oh-oh
 You don't know you're beautiful, oh-oh
 That's what makes you beautiful</t>
-  </si>
-  <si>
-    <t>Wild Ones</t>
-  </si>
-  <si>
-    <t>Flo Rida Featuring Sia</t>
   </si>
   <si>
     <t>Hey I heard you are a wild one
@@ -703,12 +1192,6 @@
 And I'm on the prowl</t>
   </si>
   <si>
-    <t>Set Fire To The Rain</t>
-  </si>
-  <si>
-    <t>Adele</t>
-  </si>
-  <si>
     <t>I let it fall, my heart
 And as it fell, you rose to claim it
 It was dark and I was overUntil you kissed my lips and you saved me
@@ -751,12 +1234,6 @@
 Let it burn, oh
 Let it burn
 Let it burn</t>
-  </si>
-  <si>
-    <t>Sexy And I Know It</t>
-  </si>
-  <si>
-    <t>LMFAO</t>
   </si>
   <si>
     <t>Yeah, yeah
@@ -817,12 +1294,6 @@
 Girl look at that body
 I-I-I work out, out, out...
 I'm sexy and I know it</t>
-  </si>
-  <si>
-    <t>Some Nights</t>
-  </si>
-  <si>
-    <t>fun.</t>
   </si>
   <si>
     <t>Some nights, I stay up cashing in my bad luck
@@ -888,12 +1359,6 @@
 It's for the best we get our distance, oh-oh, oh-oh</t>
   </si>
   <si>
-    <t>Wide Awake</t>
-  </si>
-  <si>
-    <t>Katy Perry</t>
-  </si>
-  <si>
     <t>I'm wide awake
 I'm wide awake
 I'm wide awakeYeah, I was in the dark
@@ -947,12 +1412,6 @@
 I'm wide awake
 I'm wide awake
 I'm wide awake</t>
-  </si>
-  <si>
-    <t>Good Feeling</t>
-  </si>
-  <si>
-    <t>Flo Rida</t>
   </si>
   <si>
     <t>Oh, sometimes I get a good feeling, yeah
@@ -1019,9 +1478,6 @@
 I get a feeling that I never, never, never, never had before, no, no
 I get a good feeling, yeah
 Oh, sometimes I get a good feeling</t>
-  </si>
-  <si>
-    <t>Whistle</t>
   </si>
   <si>
     <t>Can you blow my whistle, baby?
@@ -1102,12 +1558,6 @@
 Whi-whistle, baby, whistle, baby</t>
   </si>
   <si>
-    <t>One More Night</t>
-  </si>
-  <si>
-    <t>Maroon 5</t>
-  </si>
-  <si>
     <t>Ooh, ooh ooh ooh, ooh ooh, ooh ooh
 You and I go hard
 At each other like we're going to warYou and I go rough
@@ -1167,12 +1617,6 @@
 (I don't know, whatever)</t>
   </si>
   <si>
-    <t>Drive By</t>
-  </si>
-  <si>
-    <t>Train</t>
-  </si>
-  <si>
     <t>On the other side of a street I knew
 Stood a girl that looked like you
 I guess that's déjà vuBut I thought this can't be true 'cause
@@ -1225,18 +1669,6 @@
 This is not a drive by</t>
   </si>
   <si>
-    <t>The Motto</t>
-  </si>
-  <si>
-    <t>Drake Featuring Lil Wayne</t>
-  </si>
-  <si>
-    <t>Where Have You Been</t>
-  </si>
-  <si>
-    <t>Rihanna</t>
-  </si>
-  <si>
     <t>I've been everywhere, man
 Looking for someone
 Someone who can please meLove me all night long
@@ -1283,12 +1715,6 @@
 Looking for you babe
 Looking for you babe
 Searching for you babe</t>
-  </si>
-  <si>
-    <t>Everybody Talks</t>
-  </si>
-  <si>
-    <t>Neon Trees</t>
   </si>
   <si>
     <t>Hey baby, won't you look my way?
@@ -1342,12 +1768,6 @@
 And that was when I kissed her (everybody talks, everybody talks)
 Everybody talks
 Everybody talks, back</t>
-  </si>
-  <si>
-    <t>Take Care</t>
-  </si>
-  <si>
-    <t>Drake Featuring Rihanna</t>
   </si>
   <si>
     <t>I know you've been hurt by someone else
@@ -1406,12 +1826,6 @@
 I've loved and I've lost</t>
   </si>
   <si>
-    <t>Titanium</t>
-  </si>
-  <si>
-    <t>David Guetta Featuring Sia</t>
-  </si>
-  <si>
     <t>You shout it loud, but I can't hear a word you say
 I'm talking loud, not saying much
 I'm criticized, but all your bullets ricochetYou shoot me down, but I get up
@@ -1449,12 +1863,6 @@
 You shoot me down, but I won't fall
 I am titanium
 I am titanium</t>
-  </si>
-  <si>
-    <t>I Won't Give Up</t>
-  </si>
-  <si>
-    <t>Jason Mraz</t>
   </si>
   <si>
     <t>When I look into your eyes
@@ -1499,12 +1907,6 @@
 Even if the skies get rough
 I'm giving you all my love
 I'm still looking up</t>
-  </si>
-  <si>
-    <t>It Will Rain</t>
-  </si>
-  <si>
-    <t>Bruno Mars</t>
   </si>
   <si>
     <t>If you ever leave me, baby
@@ -1555,18 +1957,6 @@
 Everyday it'll rain, rain, ra-a-a-ain</t>
   </si>
   <si>
-    <t>Mercy</t>
-  </si>
-  <si>
-    <t>Kanye West, Big Sean, Pusha T, 2 Chainz</t>
-  </si>
-  <si>
-    <t>Boyfriend</t>
-  </si>
-  <si>
-    <t>Justin Bieber</t>
-  </si>
-  <si>
     <t>If I was your boyfriend, I'd never let you go
 I can take you places you ain't never been before
 Baby take a chance or you'll never ever knowI got money in my hands that I'd really like to blow
@@ -1612,12 +2002,6 @@
 Na na na, na na na, na na na ey
 Na na na, na na na, na na na ey
 If I was your boyfriend</t>
-  </si>
-  <si>
-    <t>Party Rock Anthem</t>
-  </si>
-  <si>
-    <t>LMFAO Featuring Lauren Bennett &amp; GoonRock</t>
   </si>
   <si>
     <t>...
@@ -1682,12 +2066,6 @@
 ...</t>
   </si>
   <si>
-    <t>Too Close</t>
-  </si>
-  <si>
-    <t>Alex Clare</t>
-  </si>
-  <si>
     <t>You know I'm not one to break promises
 I don't want to hurt you but I need to breathe
 At the end of it all, you're still my best friendBut there's something inside that I need to release
@@ -1721,9 +2099,6 @@
 So I'll be on my way
 So I'll be on my way
 So I'll be on my way</t>
-  </si>
-  <si>
-    <t>Part Of Me</t>
   </si>
   <si>
     <t>Days like this, I want to drive away
@@ -1783,12 +2158,6 @@
 But you're not gonna break my soul
 This is the part of me
 That you're never gonna ever take away from me, no</t>
-  </si>
-  <si>
-    <t>Young, Wild &amp; Free</t>
-  </si>
-  <si>
-    <t>Snoop Dogg &amp; Wiz Khalifa Featuring Bruno Mars</t>
   </si>
   <si>
     <t>This is the one, bro
@@ -1874,12 +2243,6 @@
 Living young and wild and free...</t>
   </si>
   <si>
-    <t>We Are Never Ever Getting Back Together</t>
-  </si>
-  <si>
-    <t>Taylor Swift</t>
-  </si>
-  <si>
     <t>I remember when we broke up the first time
 Saying, this is it, I've had enough
 'Cause likeWe hadn't seen each other in a month
@@ -1928,12 +2291,6 @@
 We (Ooh-ooh-ooh-ooh), getting back together
 You go talk to your friends, talk to my friends, talk to me
 But we are never, ever, ever, ever getting back together</t>
-  </si>
-  <si>
-    <t>As Long As You Love Me</t>
-  </si>
-  <si>
-    <t>Justin Bieber Featuring Big Sean</t>
   </si>
   <si>
     <t>As long as you love me
@@ -1985,12 +2342,6 @@
 As long as you love me As long as you love me, I'll be your silver, I'll be your gold
 As long as you love me, you love me... Is all I want baby
 As Long as you love me</t>
-  </si>
-  <si>
-    <t>Turn Me On</t>
-  </si>
-  <si>
-    <t>David Guetta Featuring Nicki Minaj</t>
   </si>
   <si>
     <t>Doctor, doctor
@@ -2069,12 +2420,6 @@
 Turn me on, turn me on</t>
   </si>
   <si>
-    <t>Moves Like Jagger</t>
-  </si>
-  <si>
-    <t>Maroon 5 Featuring Christina Aguilera</t>
-  </si>
-  <si>
     <t>Oh, oh
 Just shoot for the stars, if it feels rightThen aim for my heart, if you feel like
 And take me away
@@ -2138,12 +2483,6 @@
 With them the moves like Jagger
 I've got the moves like Jagger
 I've got the moo-oo-oo-ooves like Jagger</t>
-  </si>
-  <si>
-    <t>Blow Me (One Last Kiss)</t>
-  </si>
-  <si>
-    <t>P!nk</t>
   </si>
   <si>
     <t>White knuckles
@@ -2245,12 +2584,6 @@
 Blow me one last kiss</t>
   </si>
   <si>
-    <t>Good Time</t>
-  </si>
-  <si>
-    <t>Owl City &amp; Carly Rae Jepsen</t>
-  </si>
-  <si>
     <t>Hum hum, Woah-oh-oh-oh
 It's always a good time
 Woah-oh-oh-ohIt's always a good time
@@ -2317,12 +2650,6 @@
 Woah-oh-oh-oh</t>
   </si>
   <si>
-    <t>Give Your Heart A Break</t>
-  </si>
-  <si>
-    <t>Demi Lovato</t>
-  </si>
-  <si>
     <t>The day I first met you
 You told me you'd never fall in love
 But now that I get youI know fear is what it really was
@@ -2384,12 +2711,6 @@
 Oh yeah, yeah
 The day I first met you
 You told me you'd never fall in love</t>
-  </si>
-  <si>
-    <t>Ni**as in Paris</t>
-  </si>
-  <si>
-    <t>Jay Z Kanye West</t>
   </si>
   <si>
     <t>We're gonna skate to one song and one song only
@@ -2473,9 +2794,6 @@
 I'm definitely in my zone</t>
   </si>
   <si>
-    <t>The One That Got Away</t>
-  </si>
-  <si>
     <t>Summer after high school when we first met
 We'd make out in your Mustang to Radiohead
 And on my 18th birthday we got matching tattoosUsed to steal your parents' liquor and climb to the roof
@@ -2532,12 +2850,6 @@
 The one that got away</t>
   </si>
   <si>
-    <t>Feel So Close</t>
-  </si>
-  <si>
-    <t>Calvin Harris</t>
-  </si>
-  <si>
     <t>I feel so close to you right now, it's a force field
 I wear my heart upon my sleeve like a big deal
 Your love pours down on meSurrounds me like a waterfall
@@ -2553,9 +2865,6 @@
 And there's no stopping us right now
 And there's no stopping us right now
 I feel so close to you right now</t>
-  </si>
-  <si>
-    <t>Someone Like You</t>
   </si>
   <si>
     <t>I heard that you're settled down
@@ -2600,12 +2909,6 @@
 I'll remember, you said
 Sometimes it lasts in love, but sometimes it hurts instead
 Sometimes it lasts in love, but sometimes it hurts instead</t>
-  </si>
-  <si>
-    <t>Scream</t>
-  </si>
-  <si>
-    <t>Usher</t>
   </si>
   <si>
     <t>Usher baby, yeah
@@ -2666,12 +2969,6 @@
 Get you goin' like ooh baby baby, ooh baby baby
 Ooh baby baby, ooh baby
 If you wanna scream</t>
-  </si>
-  <si>
-    <t>Rack City</t>
-  </si>
-  <si>
-    <t>Tyga</t>
   </si>
   <si>
     <t>Rack rack city, bitch
@@ -2747,12 +3044,6 @@
 Rack city bitch, rack rack city bitch</t>
   </si>
   <si>
-    <t>Domino</t>
-  </si>
-  <si>
-    <t>Jessie J</t>
-  </si>
-  <si>
     <t>I'm feeling sexy and free
 Like glitter's raining on me
 You're like a shot of pure goldI think I'm about to explode
@@ -2823,12 +3114,6 @@
 Take me down like I'm a domino</t>
   </si>
   <si>
-    <t>Gangnam Style</t>
-  </si>
-  <si>
-    <t>PSY</t>
-  </si>
-  <si>
     <t>오빤 강남스타일
 강남스타일낮에는 따사로운 인간적인 여자
 커피 한잔의 여유를 아는 품격 있는 여자
@@ -2888,12 +3173,6 @@
 오빤 강남스타일
 Eh- Sexy Lady
 오빤 강남스타일</t>
-  </si>
-  <si>
-    <t>International Love</t>
-  </si>
-  <si>
-    <t>Pitbull Featuring Chris Brown</t>
   </si>
   <si>
     <t>We're from mister 305, dade county
@@ -2985,12 +3264,6 @@
 Whoa-whoa- oh whoa-whoa--oh international love</t>
   </si>
   <si>
-    <t>Home</t>
-  </si>
-  <si>
-    <t>Phillip Phillips</t>
-  </si>
-  <si>
     <t>Hold on, to me as we go
 As we roll down this unfamiliar road
 And although this wave is stringing us alongJust know you're not alone
@@ -3009,18 +3282,6 @@
 If you get lost, you can always be found
 Just know you're not alone
 Cause I'm gonna make this place your home</t>
-  </si>
-  <si>
-    <t>Without You</t>
-  </si>
-  <si>
-    <t>David Guetta Featuring Usher</t>
-  </si>
-  <si>
-    <t>Ass Back Home</t>
-  </si>
-  <si>
-    <t>Gym Class Heroes Featuring Neon Hitch</t>
   </si>
   <si>
     <t>Ohh, it's so sexy, yo
@@ -3086,12 +3347,6 @@
 I'm home baby</t>
   </si>
   <si>
-    <t>Wanted</t>
-  </si>
-  <si>
-    <t>Hunter Hayes</t>
-  </si>
-  <si>
     <t>You know I'd fall apart without you
 I don't know how you do what you do
 'Cause everything that don't make sense about meMakes sense when I'm with you
@@ -3135,12 +3390,6 @@
 You'll always be wanted</t>
   </si>
   <si>
-    <t>Drunk On You</t>
-  </si>
-  <si>
-    <t>Luke Bryan</t>
-  </si>
-  <si>
     <t>Cottonwood fallin' like snow in July
 Sunset, riverside, 4 wheel drive
 And a tail light circleRoll down the windows turn it on up
@@ -3180,12 +3429,6 @@
 Hey I'm a little drunk on you
 And high on summertime
 Yeah I'm a little drunk on you</t>
-  </si>
-  <si>
-    <t>No Lie</t>
-  </si>
-  <si>
-    <t>2 Chainz Featuring Drake</t>
   </si>
   <si>
     <t>EarDrummers, Mike WiLL Made-It
@@ -3292,12 +3535,6 @@
 Word, word, T.R.U</t>
   </si>
   <si>
-    <t>Want U Back</t>
-  </si>
-  <si>
-    <t>Cher Lloyd</t>
-  </si>
-  <si>
     <t>Uh!
 Mmm, yeah
 La-la-la-la-laUh!
@@ -3373,12 +3610,6 @@
 Does it sound like a helicopter? (Brrrrr)</t>
   </si>
   <si>
-    <t>Don't Wake Me Up</t>
-  </si>
-  <si>
-    <t>Chris Brown</t>
-  </si>
-  <si>
     <t>Dearly beloved
 If this love only exists in my dreams
 Don't wake me upToo much light in this window
@@ -3417,18 +3648,6 @@
 Don't wake me up, yeah
 Don't wake me up, up, up, up, up, up
 Don't wake me up, don't wake me</t>
-  </si>
-  <si>
-    <t>Dance (A$$)</t>
-  </si>
-  <si>
-    <t>Big Sean Featuring Nicki Minaj</t>
-  </si>
-  <si>
-    <t>Springsteen</t>
-  </si>
-  <si>
-    <t>Eric Church</t>
   </si>
   <si>
     <t>To this day when I hear that song
@@ -3486,12 +3705,6 @@
 Whoa-oh-oh-oh
 Whoa-oh-oh-oh
 Whoa-oh-oh-oh</t>
-  </si>
-  <si>
-    <t>Brokenhearted</t>
-  </si>
-  <si>
-    <t>Karmin</t>
   </si>
   <si>
     <t>Oh, yeah
@@ -3552,12 +3765,6 @@
 Come on, that's right, cheerio, uh</t>
   </si>
   <si>
-    <t>Not Over You</t>
-  </si>
-  <si>
-    <t>Gavin DeGraw</t>
-  </si>
-  <si>
     <t>Dreams
 That's where I have to go
 To see your beautifulFace anymore I stare at a picture of you
@@ -3605,12 +3812,6 @@
 Not over you
 Not over you
 Not over you</t>
-  </si>
-  <si>
-    <t>Stereo Hearts</t>
-  </si>
-  <si>
-    <t>Gym Class Heroes Featuring Adam Levine</t>
   </si>
   <si>
     <t>My hearts a stereo
@@ -3676,12 +3877,6 @@
 Just sing along to my stereo
 Oh oh oh oh oh oh to my stereo
 Oh oh oh to sing along to my stereo</t>
-  </si>
-  <si>
-    <t>Back In Time</t>
-  </si>
-  <si>
-    <t>Pitbull</t>
   </si>
   <si>
     <t>Excuse me baby
@@ -3771,12 +3966,6 @@
 Baby, oh baby
 Oh baby, my sweet baby
 You're the one</t>
-  </si>
-  <si>
-    <t>Work Out</t>
-  </si>
-  <si>
-    <t>J. Cole</t>
   </si>
   <si>
     <t>I want to see you work out for me, work out for me
@@ -3881,9 +4070,6 @@
 (Work out for me, work out for me)</t>
   </si>
   <si>
-    <t>Rumour Has It</t>
-  </si>
-  <si>
     <t>Ooh, ooh, ooh, ooh
 She, she ain't realShe ain't gon be able to love you like I will
 She is a stranger
@@ -3946,12 +4132,6 @@
 But rumour has it, he's the one I'm leaving you for</t>
   </si>
   <si>
-    <t>Let's Go</t>
-  </si>
-  <si>
-    <t>Calvin Harris Featuring Ne-Yo</t>
-  </si>
-  <si>
     <t>Let's go!
 Make no excuses now
 I'm talking here and nowI'm talking here and now
@@ -3998,12 +4178,6 @@
 Oh let's go!
 Let's go!
 Oh let's go!</t>
-  </si>
-  <si>
-    <t>Good Girl</t>
-  </si>
-  <si>
-    <t>Carrie Underwood</t>
   </si>
   <si>
     <t>Hey, good girl (hey, good girl)
@@ -4064,18 +4238,6 @@
 You better get to getting on your goodbye shoes</t>
   </si>
   <si>
-    <t>Pontoon</t>
-  </si>
-  <si>
-    <t>Little Big Town</t>
-  </si>
-  <si>
-    <t>Ho Hey</t>
-  </si>
-  <si>
-    <t>The Lumineers</t>
-  </si>
-  <si>
     <t>Ho! Hey!
 Ho! Hey!Ho! I've been trying to do it right
 Hey! I've been living a lonely life
@@ -4111,12 +4273,6 @@
 Hey!
 Ho! (The last one)
 Hey!</t>
-  </si>
-  <si>
-    <t>Paradise</t>
-  </si>
-  <si>
-    <t>Coldplay</t>
   </si>
   <si>
     <t>When she was just a girl
@@ -4160,9 +4316,6 @@
 Oh oh oh oh oh oh oh oh</t>
   </si>
   <si>
-    <t>Blown Away</t>
-  </si>
-  <si>
     <t>Dry lightning cracks across the skies
 Those storm clouds gather in her eyes
 Her daddy was a mean old misterMama was an angel in the ground
@@ -4201,9 +4354,6 @@
 Blown away
 Blown away
 Blown away</t>
-  </si>
-  <si>
-    <t>Rolling In The Deep</t>
   </si>
   <si>
     <t>There's a fire starting in my heart
@@ -4280,9 +4430,6 @@
 You played it to the beat</t>
   </si>
   <si>
-    <t>Climax</t>
-  </si>
-  <si>
     <t>Going nowhere fast
 We've reached our climax
 We're together, now we're undoneWon't commit so we choose to run away
@@ -4335,12 +4482,6 @@
 Don't wanna give in so we both gave up
 Can't take it back, it's too late, we've reached the climax
 Climax</t>
-  </si>
-  <si>
-    <t>Work Hard, Play Hard</t>
-  </si>
-  <si>
-    <t>Wiz Khalifa</t>
   </si>
   <si>
     <t>Work hard, play hard
@@ -4428,12 +4569,6 @@
 Work hard, play hard
 Work hard, play hard
 Work hard, play hard, uh</t>
-  </si>
-  <si>
-    <t>Let Me Love You (Until You Learn To Love Yourself)</t>
-  </si>
-  <si>
-    <t>Ne-Yo</t>
   </si>
   <si>
     <t>Much as you blame yourself
@@ -4526,9 +4661,6 @@
 Ooh, ooh, oh</t>
   </si>
   <si>
-    <t>Pound The Alarm</t>
-  </si>
-  <si>
     <t>Oh! Oh! Oh! Come fill my glass up a little more!
 We 'bout to get up and burn this floor!
 You know we're getting hotter and hotter!Sexy and hotter! Let's shut it down!
@@ -4574,12 +4706,6 @@
 Pound the alarm!</t>
   </si>
   <si>
-    <t>Come Over</t>
-  </si>
-  <si>
-    <t>Kenny Chesney</t>
-  </si>
-  <si>
     <t>I turn the tv off, to turn it on again
 Staring at the blades of the fan as it spins aroundCounting every crack, the clock is wide awake
 Talking to myself, anything to make a sound
@@ -4607,12 +4733,6 @@
 Come over, come over, come over, come over, come over
 Come over, come over, come over, come over, come over.
 Come over, come over, come over, come over, come over.</t>
-  </si>
-  <si>
-    <t>Heart Attack</t>
-  </si>
-  <si>
-    <t>Trey Songz</t>
   </si>
   <si>
     <t>Woop, turn the lights on!
@@ -4669,18 +4789,6 @@
 Oh wo-oh, never-never, never knew love
 Oh wo-oh, would hurt this fuckin' bad
 The worst pain that I ever had</t>
-  </si>
-  <si>
-    <t>Drank In My Cup</t>
-  </si>
-  <si>
-    <t>Kirko Bangz</t>
-  </si>
-  <si>
-    <t>Birthday Cake</t>
-  </si>
-  <si>
-    <t>Rihanna Featuring Chris Brown</t>
   </si>
   <si>
     <t>God damn! Rihanna! You getting fat as hell bitch!
@@ -4801,15 +4909,6 @@
 SEARCH ALL LYBIO'S HERE</t>
   </si>
   <si>
-    <t>So Good</t>
-  </si>
-  <si>
-    <t>B.o.B</t>
-  </si>
-  <si>
-    <t>50 Ways To Say Goodbye</t>
-  </si>
-  <si>
     <t>My heart is paralyzed
 My head was oversized
 I'll take the highroad like I shouldYou said it's meant to be
@@ -4871,12 +4970,6 @@
 Help me, help me
 I'm all out of lies
 And ways to say you died</t>
-  </si>
-  <si>
-    <t>Red Solo Cup</t>
-  </si>
-  <si>
-    <t>Toby Keith</t>
   </si>
   <si>
     <t>One two three
@@ -4952,12 +5045,6 @@
 Ou de da dum</t>
   </si>
   <si>
-    <t>Love You Like A Love Song</t>
-  </si>
-  <si>
-    <t>Selena Gomez &amp; The Scene</t>
-  </si>
-  <si>
     <t>It's been said and done
 Every beautiful thought's been already sung
 And I guess right now, here's another oneSo your melody will play on and on
@@ -5007,9 +5094,6 @@
 I, I love you like a love song, baby
 I, I love you like a love song, baby (I love you)
 I love you like a love song</t>
-  </si>
-  <si>
-    <t>Turn Up The Music</t>
   </si>
   <si>
     <t>Turn up the music 'cause this song just came on
@@ -5086,12 +5170,6 @@
 Don't stop the music</t>
   </si>
   <si>
-    <t>Die Young</t>
-  </si>
-  <si>
-    <t>Ke$ha</t>
-  </si>
-  <si>
     <t>I hear your heart beat to the beat of the drums
 Oh, what a shame that you came here with someone
 So while you're here in my armsLet's make the most of the night like we're gonna die young
@@ -5138,12 +5216,6 @@
 We're gonna die young
 We're gonna die young
 Let's make the most of the night like we're gonna die young</t>
-  </si>
-  <si>
-    <t>5 O'Clock</t>
-  </si>
-  <si>
-    <t>T-Pain Featuring Wiz Khalifa &amp; Lily Allen</t>
   </si>
   <si>
     <t>It's 5 o'clock in the morning
@@ -5259,12 +5331,6 @@
 It's 5 o'clock in the morni</t>
   </si>
   <si>
-    <t>A Thousand Years</t>
-  </si>
-  <si>
-    <t>Christina Perri</t>
-  </si>
-  <si>
     <t>Heart beats fast
 Colors and promises
 How to be brave?How can I love when I'm afraid to fall?
@@ -5304,15 +5370,6 @@
 Time has brought your heart to me
 I have loved you for a thousand years
 I'll love you for a thousand more</t>
-  </si>
-  <si>
-    <t>Take A Little Ride</t>
-  </si>
-  <si>
-    <t>Jason Aldean</t>
-  </si>
-  <si>
-    <t>You Da One</t>
   </si>
   <si>
     <t>You da one that I dream about all day
@@ -5376,18 +5433,6 @@
 My love is your love, your love is mine</t>
   </si>
   <si>
-    <t>We Run The Night</t>
-  </si>
-  <si>
-    <t>Havana Brown Featuring Pitbull</t>
-  </si>
-  <si>
-    <t>It's Time</t>
-  </si>
-  <si>
-    <t>Imagine Dragons</t>
-  </si>
-  <si>
     <t>So, this is what you meant?
 When you said that you were spent
 And now it's time to build from the bottom of the pitRight to the top
@@ -5435,15 +5480,6 @@
 I'm just the same as I was
 Now don't you understand
 That I'm never changing who I am</t>
-  </si>
-  <si>
-    <t>Cashin' Out</t>
-  </si>
-  <si>
-    <t>Ca$h Out</t>
-  </si>
-  <si>
-    <t>I Don't Want This Night To End</t>
   </si>
   <si>
     <t>Girl, I know I don't know you
@@ -5500,9 +5536,6 @@
 Girl, all I know is I don't want this night to end
 I don't want this night to end
 No I don't want this night to end</t>
-  </si>
-  <si>
-    <t>Diamonds</t>
   </si>
   <si>
     <t>Shine bright like a diamond
@@ -5568,12 +5601,6 @@
 Shine bright like a diamond</t>
   </si>
   <si>
-    <t>Hard To Love</t>
-  </si>
-  <si>
-    <t>Lee Brice</t>
-  </si>
-  <si>
     <t>I am insensitive I have a tendency
 To pay more attention to the things that I need
 Sometimes I drink to much, sometimes I test your trustSometimes I dunno why you stay with me
@@ -5605,18 +5632,6 @@
 I'm hard to love, hard to love and you say that you need me
 I don't deserve it but I love that you love me good
 You love me good (hard to love, had to love) love me good</t>
-  </si>
-  <si>
-    <t>Somethin' 'Bout A Truck</t>
-  </si>
-  <si>
-    <t>Kip Moore</t>
-  </si>
-  <si>
-    <t>Adorn</t>
-  </si>
-  <si>
-    <t>Miguel</t>
   </si>
   <si>
     <t>She's art dealer chic
@@ -5654,15 +5669,6 @@
 Oh, love ain't never looked so good on ya
 Oh, put it on, baby
 Let my love adorn... You</t>
-  </si>
-  <si>
-    <t>Fly Over States</t>
-  </si>
-  <si>
-    <t>Even If It Breaks Your Heart</t>
-  </si>
-  <si>
-    <t>Eli Young Band</t>
   </si>
   <si>
     <t>Way back on the radio dial
@@ -5701,12 +5707,6 @@
 Even if it breaks . your heart.
 Ohhh, Ohhh Keep on dreaming
 Ohhh, ohhh, Don't let em break your heart</t>
-  </si>
-  <si>
-    <t>Burn It Down</t>
-  </si>
-  <si>
-    <t>Linkin Park</t>
   </si>
   <si>
     <t>The cycle repeated
@@ -5748,16 +5748,422 @@
 And fan the flames as your blazes burn
 We can't wait to burn it to the ground</t>
   </si>
+  <si>
+    <t>The Motto</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm the fuckin' man, y'all don't get it, do ya?
+Type of money, everybody acting like they knew ya
+Go Uptown, New York City, bitch
+Them Spanish girls love me like I'm Aventura
+Tell Uncle Luke I'm out in Miami, too
+Clubbing hard, fucking women, there ain't much to do
+Wrist bling, got a condo up in Biscayne
+Still getting brain from a thang, ain't shit changed
+How you feel how you feel how you feel?
+25, sitting on 25 mill
+I'm in the building and I'm feeling myself
+Rest in peace, Mac Dre, I'm-a do it for the Bay
+Okay, getting paid, we'll holler whenever that stop
+My team good, we don't really need a mascot
+Tell Tune, "Light one, pass it like a relay"
+YMCMB, you niggas more YMCA
+Me, Franny, and Mally Mall at the crib-o
+Shout goes out to Niko, J and Chubbs, shouts to Gibbo
+We got Santa Margherita by the liter
+She know even if I'm fucking with her, I don't really need her
+Aww, that's how you feel, man? That's really how you feel?
+Cause the pimpin ice cold, all these bitches wanna chill
+I mean maybe she won't but then again maybe she will
+I can almost guarantee she know the deal, real nigga, what's up?
+Now she want a photo, you already know, though
+You only live once: that's the motto, nigga, YOLO
+And we bout it every day, every day, every day
+Like we sittin on the bench, nigga, we don't really play
+Every day, every day, fuck what anybody say
+Can't see 'em cause the money in the way, real nigga, what's up?
+One... time? Fuck one time
+I'm calling niggas out like the umpire
+Seven... grams in the blunt
+Almost drowned in her pussy so I swam to her butt
+It's Eastside, we in this bitch
+Wish a nigga would, like a tree in this bitch
+And if a leaf fall put some weed in that bitch
+That's my MO, add a B to that shit
+I'm fucked up, tore down
+I'm twisted: door knob
+Talk stupid? Off with your head!
+Nigga, money talks, and Mr. Ed
+I'm so Young Money
+Got a drum on the gun, Energizer bunny
+Funny how honey ain't sweet like sugar
+Ain't shit sweet? Niggas on the street like hookers
+I tongue kiss her other tongue
+Skeet skeet skeet: water gun
+Oh my God, Becky, look at her butt! Tunechi
+Now she want a photo, you already know, though
+You only live once: that's the motto, nigga, YOLO
+And we bout it every day, every day, every day
+Like we sittin on the bench, nigga, we don't really play
+Every day, every day, fuck what anybody say
+Can't see 'em cause the money in the way, real nigga, what's up?
+Real nigga, what's up?
+Now she want a photo, you already know, though
+You only live once: that's the motto, nigga, YOLO
+And we bout it every day, every day, every day
+Like we sittin on the bench, nigga, we don't really play
+Every day, every day, fuck what anybody say
+Can't see 'em cause the money in the way, real nigga, what's up?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back this hitch up into the water
+Untie all the cables and rope
+Step onto the astro turf
+Get yourself a koozie
+Let's go
+Who said anything about skiin'?
+Floatin' is all I wanna do
+You can climb the ladder
+Just don't rock the boat while I barbecue
+On the pontoon
+Makin' waves and catchin' rays up on the roof
+Jumpin' off the back, don't act like you don't want to
+Party in slow motion
+Out here in the open
+Mmmmmmm... motorboatin'
+(Who who who)
+Reach your hand down into the cooler
+Don't drink it if the mountains aren't blue
+Try to keep it steady as you recline on your black intertube
+Pontoon
+Makin' waves and catchin' rays up on the roof
+Jumpin' off the back, don't act like you don't want to
+Party in slow motion
+Out here in the open
+Mmmmmm... motorboatin'
+(Who who who)
+(Who who who)
+5 mile an hour with aluminum sides
+Wood panelin' with a water slide
+Can't beat the heat, so let's take a ride
+On the pontoon
+Makin' waves and catchin' rays up on the roof
+Jumpin' off the back, don't act like you don't want to
+Party in slow motion
+I'm out here in the open
+Mmmmmmm... motorboatin'
+On the pontoon
+(Who who who)
+On the pontoon
+(Who who who)
+Back this hitch out into the water
+On the pontoon
+(Who who who)
+(Who who who)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I done came down, hold up
+Grip the grain, Roll up
+And your girlfriend want a nigga like me
+'Cuz I ain't trying to control her
+She call me when she wants a change
+Black diamond, my pinky ring
+And she know you weak and we ain't the same
+You hit the scene, I make the scene
+I'm in her head like Maybelline
+H-Town so I'm made to lean
+I'm in her soul, I make her scream
+I don't ride the toll, don't pay the change
+I'm EZ tag like Peter Pan
+She want a man, don't need a man
+I'm flying down your boulevard
+She cooking dinner with your pants
+Draped up, dripped out
+Your bitch know what I'm taking 'bout
+Pulls up, pull out
+We get it poppin' in the parking lot
+She like to do it with the lights on
+Don't matter to me if it's dark or not
+I'm G'd up, East up
+Fossil pants, I'm hard as rock
+Girl I know how much you really want somebody
+Want somebody that don't really need you
+Girl I know how much you really want somebody
+Want somebody that ain't trying to keep
+You heard what I said, they put you to bed
+They ain't trying to love you baby, just fuck you instead
+And don't tell 'em nothing baby, you know that I'm coming baby
+Just hit up my phone whenever you need you some company
+Got this drank in my cup
+Oh yeahhhh
+I got this drank in my cup (This drank)
+I got this drank in my cup (This drank)
+Cup, cup.
+I done came down, came up
+Slow pitch, change up
+Same hood, same style
+Same drink, same cup
+She call me when she wanna fuck
+I never call, she knows what's up
+Same page, same book
+Different song, same Everytime her nigga tripping
+She on the phone with the same crook
+And everytime I pull up
+She hit me with that same look
+Lips biting, hips right
+She left her man for that get right
+I'm in the middle, like midnight
+Only if u got that sip type
+Only if u got that wine fine
+Only if u got that sip type
+Only if u got that mine bomb
+Only if u got that Zip type
+Eat that shit like Wonton
+Choking baby, I'm pimp tight
+I'm used to being that one and done
+But girl you got that (get right)
+Girl I know how much you really want somebody
+Want somebody that don't really need you
+Girl I know how much you really want somebody
+Want somebody that ain't trying to keep
+You heard what I said, they put you to bed
+They ain't trying to love you baby, just fuck you instead
+And don't tell 'em nothing baby, you know that I'm coming baby
+Just hit up my phone whenever you need you some company
+Got this drank in my cup
+H-Town
+Oh yeahhhh
+I got this drank in my cup
+I got this drank in my cup
+Cup, cup</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Take A Little Ride</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Havana Brown
+RedOne, Mr. Worldwide
+From Miami, Morocco
+To Australia, to the world
+Run 'em like run 'em, run 'em
+Dale
+Run 'em like run 'em, run 'em
+When the sun goes down, down, down, down
+Boy you're afraid of the dark, dark
+And when the lights go out, out, out, out
+Tell me do you know where to start, start
+And when the bass gets loud, loud, loud
+That is when I feel apart, apart
+And when the world sleeps sound, sound, sound, sound
+Well the sound is the key of my heart, heart
+We run, yes we run the night, night
+We run, yes we run the night, we, we, we run, we, we, we run
+We run, yes we run the night, the night
+Run 'em like run 'em, run 'em
+Run 'em like run 'em, run 'em
+Run 'em like run 'em, run 'em
+From the bottom of the map, Miami
+To the land down under, Australia
+You feel my draft, see my vision and hear my hunger
+As my money gets older, girls get younger
+They sell their soul but the devil knows I have no number
+Come on baby, push on baby, go go baby
+Oh oh baby, no no baby, yeah yeah baby
+Now jiggle it baby, let me tickle it baby
+I know I'm lost, it's gonna be hard to save me
+I'm sorry that how they can't erase me
+You heard me right, we run the night
+Now fck you pay me
+We run, yes we run the night, night
+We run, yes we run the night, we, we, we run, we, we, we run
+We run, yes we run the night, the night
+Run 'em like run 'em, run 'em
+Run 'em like run 'em, run 'em
+Run 'em like run 'em, run 'em
+Feeling like a rush, rush, rush
+Pushing passed me, all over my skin, skin
+I can't get enough 'nough 'nough 'nough
+'Cause the beat keeps pulling me in
+Taking me so high up, up, up
+A place that I've never been, ahhhh
+Party, party all night, night, night, sleep all day then do it again.
+We run, yes we run the night, night night
+Run 'em like run 'em, run 'em
+We run, yes we run the night, we, we, we run, we, we, we run
+We run, yes we run the night, the night
+Run 'em like run 'em, run 'em</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cool
+36 O's so riding round with that nina
+Riding with a ho named Keisha, smoking on Keisha
+My diamonds talk for me they say "Hi, can I meet you"
+G5, how high in the sky, ho I can't see you
+Got a condo on my wrist girl, I'm cashing out
+Got a condo around my neck girl, I'm cashing out
+36 O's so I'm riding round with that nina
+My diamonds talk for me they say "Hi, can I meet you"
+I got Versace all on my back
+These hoes all on my back
+Plus these plugs all on my back
+Cause they know I'm moving that pack
+These Louies all in my face
+Four-fifths stay up on my waist
+Plus it ain't on me for nothing so please don't make me catch a case
+Cause bitch I'm 'bout it
+Me walking round with no check on me, psshh
+Yeah I doubt it
+Your girl ain't finna leave with me, psshh
+Yeah I doubt it
+And I'm like, what the hell they talking 'bout
+And if I got it I bought it, cause boy you know I'm cashing out
+Cool
+36 O's so riding round with that nina
+Riding with a ho named Keisha, smoking on Keisha
+My diamonds talk for me they say "Hi, can I meet you"
+G5, how high in the sky, ho I can't see you
+Got a condo on my wrist girl, I'm cashing out
+Got a condo around my neck girl, I'm cashing out
+36 O's so I'm riding round with that nina
+My diamonds talk for me they say "Hi, can I meet you"
+Ok, I drop the top, hop in
+Hoes they coming by flocks in
+Birds they coming by flocks in
+Pass them birds like Stockton
+Play with my money I'm popping
+No acting, but it's a movie
+Got Spinz on the beat so we ain't losing
+Don't act like your ho ain't choosin
+I done blowed up, yeah I'm the bomb
+Riding round blowing on stank bombs
+Pussy so good you should thank moms
+Top floor suite chilling at the Palms
+We want the whole loaf leave y'all the crumbs
+Til then I'm running my check up
+And it's fuck a Bugatti I'm calling my jet up
+Cool
+36 O's so riding round with that nina
+Riding with a ho named Keisha, smoking on Keisha
+My diamonds talk for me they say "Hi, can I meet you"
+G5, how high in the sky, ho I can't see you
+Got a condo on my wrist girl, I'm cashing out
+Got a condo around my neck girl, I'm cashing out
+36 O's so I'm riding round with that nina
+My diamonds talk for me they say "Hi, can I meet you"
+It's big pimping over here... Church
+Time to cop the Maybach already had the vert
+I got big money visions, Sammy Sosa pigeons
+What that mean? That mean they jumping out the kitchen
+And I'm on the money mission, nobody can stop me
+Just grab your camcorder, press record and gon' and watch me
+And you can skate on my ice just like you playing hockey
+And in the booth I beat the beat up, call me Rocky
+Yeah I'm cocky
+Cool
+36 O's so riding round with that nina
+Riding with a ho named Keisha, smoking on Keisha
+My diamonds talk for me they say "Hi, can I meet you"
+G5, how high in the sky, ho I can't see you
+Got a condo on my wrist girl, I'm cashing out
+Got a condo around my neck girl, I'm cashing out
+36 O's so I'm riding round with that nina
+My diamonds talk for me they say "Hi, can I meet you"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kip Moore</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Somethin' 'bout a truck in a farmer's field
+A no trespass sign, and time to kill
+Nobody's gonna get hurt, so what's the big deal
+Somethin' 'bout a truck in a farmer's field
+Somethin' 'bout beer, sitting on ice
+After a long hard day, makes it taste just right
+On that dropped tailgate, on a summer night
+Somethin' 'bout beer sitting on ice
+And there's somethin' 'bout a girl, in a red sun dress
+With an ice cold beer pressed against her lips
+In that farmer's field, will make a boy a man
+There's somethin' 'bout a girl in a red sundress
+And there's somethin' 'bout a kiss, that's gonna lead to more
+On that dropped tailgate, back behind the corn
+The most natural thing you've ever felt before
+There's somethin' 'bout a kiss that's gonna lead to more
+And there's somethin' 'bout a truck in a field
+And a girl in a red sundress with an ice cold beer to her lips
+Begging for another kiss
+And there's somethin' 'bout you and me and the birds and the bees
+And Lord have mercy it's a beautiful thing
+Ain't nothin' 'bout it luck, there's somethin' 'bout a truck
+Somethin' 'bout a creek, around 2 a.m.
+After a few of those beers, you wanna dive on in
+You don't need no clothes, so just hang 'em on a limb
+There's somethin' 'bout a creek around 2 a.m.
+And there's somethin' 'bout a truck in a field
+And a girl in a red sundress with an ice cold beer to her lips
+Begging for another kiss
+And there's somethin' 'bout you and me and the birds and the bees
+And Lord have mercy, it's a beautiful thing
+Ain't nothin' 'bout it luck, there's somethin' 'bout a truck
+Ain't nothin' 'bout it luck, there's somethin' 'bout a truck</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A couple of guys in first class on a flight
+From New York to Los Angeles
+Kinda making small talk, killing time
+Flirting with the flight attendants
+30, 000 feet above, could be Oklahoma
+Just a bunch of square cornfields and wheat farms
+Man it all looks the same
+Miles and miles of backroads and highways
+Connecting little towns with funny names
+Who'd want to live down there in the middle of nowhere?
+They've never drove through Indiana
+Met a man who plowed that earth
+Planted that seed, busted his ass for you and me
+Or caught a harvest moon in Kansas
+They'd understand why God made those fly over states
+I bet that mile long Santa Fe freight train engineer's seen it all
+Just like that flatbed cowboy stacking US steel on a 3-day haul
+Road and rails under their feet
+Yeah that sounds like a first class seat
+On the plains of Oklahoma
+With a windshield sunset in your eyes
+Like a watercolor painted sky
+You'd think heavens doors have opened
+You'll understand why God made
+Those fly over states
+Take a ride across the badlands
+Feel that freedom on your face
+Breathe in all that open space
+Meet a girl from Amarillo
+You'll understand why God made
+Might even want to plant your stakes
+In those fly over states
+Have you ever been through Indiana
+On the plains of Oklahoma
+Take a ride</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -5765,8 +6171,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -5778,7 +6191,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -5786,24 +6199,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5845,7 +6284,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5877,9 +6316,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5911,6 +6368,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6086,1078 +6561,1698 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E4">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E5">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="C6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E7">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E8">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E9">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" t="s">
+        <v>193</v>
+      </c>
+      <c r="E11">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="C12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" t="s">
+        <v>194</v>
+      </c>
+      <c r="E12">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" t="s">
+        <v>195</v>
+      </c>
+      <c r="E13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" t="s">
+        <v>196</v>
+      </c>
+      <c r="E14">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="C15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" t="s">
+        <v>197</v>
+      </c>
+      <c r="E15">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" t="s">
+        <v>198</v>
+      </c>
+      <c r="E16">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" t="s">
+        <v>199</v>
+      </c>
+      <c r="E17">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="C18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E18">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" t="s">
+        <v>201</v>
+      </c>
+      <c r="E19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>271</v>
+      </c>
+      <c r="C20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E20">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" t="s">
+        <v>202</v>
+      </c>
+      <c r="E21">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="C22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" t="s">
+        <v>203</v>
+      </c>
+      <c r="E22">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C23" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" t="s">
+        <v>204</v>
+      </c>
+      <c r="E23">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" t="s">
+        <v>205</v>
+      </c>
+      <c r="E24">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="C25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" t="s">
+        <v>206</v>
+      </c>
+      <c r="E25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" t="s">
+        <v>207</v>
+      </c>
+      <c r="E26">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
         <v>28</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C27" t="s">
+        <v>125</v>
+      </c>
+      <c r="E27">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="C28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" t="s">
+        <v>208</v>
+      </c>
+      <c r="E28">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" t="s">
+        <v>209</v>
+      </c>
+      <c r="E29">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
         <v>31</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" t="s">
+        <v>210</v>
+      </c>
+      <c r="E30">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="C31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" t="s">
+        <v>211</v>
+      </c>
+      <c r="E31">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C32" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" t="s">
+        <v>212</v>
+      </c>
+      <c r="E32">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
         <v>34</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C33" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" t="s">
+        <v>213</v>
+      </c>
+      <c r="E33">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+      <c r="C34" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" t="s">
+        <v>214</v>
+      </c>
+      <c r="E34">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
         <v>36</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C35" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" t="s">
+        <v>215</v>
+      </c>
+      <c r="E35">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
         <v>37</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C36" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" t="s">
+        <v>216</v>
+      </c>
+      <c r="E36">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+      <c r="C37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" t="s">
+        <v>217</v>
+      </c>
+      <c r="E37">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
         <v>39</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C38" t="s">
+        <v>135</v>
+      </c>
+      <c r="D38" t="s">
+        <v>218</v>
+      </c>
+      <c r="E38">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
         <v>40</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C39" t="s">
+        <v>136</v>
+      </c>
+      <c r="D39" t="s">
+        <v>219</v>
+      </c>
+      <c r="E39">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+      <c r="C40" t="s">
+        <v>137</v>
+      </c>
+      <c r="D40" t="s">
+        <v>220</v>
+      </c>
+      <c r="E40">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
         <v>42</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C41" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" t="s">
+        <v>221</v>
+      </c>
+      <c r="E41">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
         <v>43</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C42" t="s">
+        <v>138</v>
+      </c>
+      <c r="D42" t="s">
+        <v>222</v>
+      </c>
+      <c r="E42">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
+      <c r="C43" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" t="s">
+        <v>223</v>
+      </c>
+      <c r="E43">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
         <v>45</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C44" t="s">
+        <v>139</v>
+      </c>
+      <c r="D44" t="s">
+        <v>224</v>
+      </c>
+      <c r="E44">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
         <v>46</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C45" t="s">
+        <v>140</v>
+      </c>
+      <c r="D45" t="s">
+        <v>225</v>
+      </c>
+      <c r="E45">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+      <c r="C46" t="s">
+        <v>141</v>
+      </c>
+      <c r="D46" t="s">
+        <v>226</v>
+      </c>
+      <c r="E46">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
         <v>48</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C47" t="s">
+        <v>142</v>
+      </c>
+      <c r="D47" t="s">
+        <v>227</v>
+      </c>
+      <c r="E47">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B48" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
+      <c r="C48" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" t="s">
+        <v>228</v>
+      </c>
+      <c r="E48">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
         <v>50</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C49" t="s">
+        <v>144</v>
+      </c>
+      <c r="D49" t="s">
+        <v>229</v>
+      </c>
+      <c r="E49">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
         <v>51</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C50" t="s">
+        <v>145</v>
+      </c>
+      <c r="E50">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+      <c r="C51" t="s">
+        <v>146</v>
+      </c>
+      <c r="D51" t="s">
+        <v>230</v>
+      </c>
+      <c r="E51">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
         <v>53</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C52" t="s">
+        <v>147</v>
+      </c>
+      <c r="D52" t="s">
+        <v>231</v>
+      </c>
+      <c r="E52">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
         <v>54</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C53" t="s">
+        <v>148</v>
+      </c>
+      <c r="D53" t="s">
+        <v>232</v>
+      </c>
+      <c r="E53">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
+      <c r="C54" t="s">
+        <v>149</v>
+      </c>
+      <c r="D54" t="s">
+        <v>233</v>
+      </c>
+      <c r="E54">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
         <v>56</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D55" t="s">
+        <v>234</v>
+      </c>
+      <c r="E55">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="C56" t="s">
+        <v>151</v>
+      </c>
+      <c r="D56" t="s">
+        <v>235</v>
+      </c>
+      <c r="E56">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
         <v>58</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C57" t="s">
+        <v>152</v>
+      </c>
+      <c r="E57">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
         <v>59</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C58" t="s">
+        <v>153</v>
+      </c>
+      <c r="D58" t="s">
+        <v>236</v>
+      </c>
+      <c r="E58">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="C59" t="s">
+        <v>154</v>
+      </c>
+      <c r="D59" t="s">
+        <v>237</v>
+      </c>
+      <c r="E59">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
         <v>61</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C60" t="s">
+        <v>155</v>
+      </c>
+      <c r="D60" t="s">
+        <v>238</v>
+      </c>
+      <c r="E60">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
         <v>62</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C61" t="s">
+        <v>156</v>
+      </c>
+      <c r="D61" t="s">
+        <v>239</v>
+      </c>
+      <c r="E61">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+      <c r="C62" t="s">
+        <v>157</v>
+      </c>
+      <c r="D62" t="s">
+        <v>240</v>
+      </c>
+      <c r="E62">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
         <v>64</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C63" t="s">
+        <v>158</v>
+      </c>
+      <c r="D63" t="s">
+        <v>241</v>
+      </c>
+      <c r="E63">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
         <v>65</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C64" t="s">
+        <v>111</v>
+      </c>
+      <c r="D64" t="s">
+        <v>242</v>
+      </c>
+      <c r="E64">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="C65" t="s">
+        <v>159</v>
+      </c>
+      <c r="D65" t="s">
+        <v>243</v>
+      </c>
+      <c r="E65">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
         <v>67</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C66" t="s">
+        <v>160</v>
+      </c>
+      <c r="D66" t="s">
+        <v>244</v>
+      </c>
+      <c r="E66">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
         <v>68</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C67" t="s">
+        <v>161</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E67">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="C68" t="s">
+        <v>162</v>
+      </c>
+      <c r="D68" t="s">
+        <v>245</v>
+      </c>
+      <c r="E68">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
         <v>70</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C69" t="s">
+        <v>163</v>
+      </c>
+      <c r="D69" t="s">
+        <v>246</v>
+      </c>
+      <c r="E69">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
         <v>71</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C70" t="s">
+        <v>160</v>
+      </c>
+      <c r="D70" t="s">
+        <v>247</v>
+      </c>
+      <c r="E70">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
+      <c r="C71" t="s">
+        <v>111</v>
+      </c>
+      <c r="D71" t="s">
+        <v>248</v>
+      </c>
+      <c r="E71">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
         <v>73</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C72" t="s">
+        <v>139</v>
+      </c>
+      <c r="D72" t="s">
+        <v>249</v>
+      </c>
+      <c r="E72">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
         <v>74</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C73" t="s">
+        <v>164</v>
+      </c>
+      <c r="D73" t="s">
+        <v>250</v>
+      </c>
+      <c r="E73">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
+      <c r="C74" t="s">
+        <v>165</v>
+      </c>
+      <c r="D74" t="s">
+        <v>251</v>
+      </c>
+      <c r="E74">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
         <v>76</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C75" t="s">
+        <v>108</v>
+      </c>
+      <c r="D75" t="s">
+        <v>252</v>
+      </c>
+      <c r="E75">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
+      <c r="C76" t="s">
+        <v>166</v>
+      </c>
+      <c r="D76" t="s">
+        <v>253</v>
+      </c>
+      <c r="E76">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
         <v>78</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C77" t="s">
+        <v>167</v>
+      </c>
+      <c r="D77" t="s">
+        <v>254</v>
+      </c>
+      <c r="E77">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
         <v>79</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C78" t="s">
+        <v>168</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E78">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
+      <c r="C79" t="s">
+        <v>169</v>
+      </c>
+      <c r="D79" t="s">
+        <v>255</v>
+      </c>
+      <c r="E79">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
         <v>81</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C80" t="s">
+        <v>170</v>
+      </c>
+      <c r="E80">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
         <v>82</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C81" t="s">
+        <v>117</v>
+      </c>
+      <c r="D81" t="s">
+        <v>256</v>
+      </c>
+      <c r="E81">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
+      <c r="C82" t="s">
+        <v>171</v>
+      </c>
+      <c r="D82" t="s">
+        <v>257</v>
+      </c>
+      <c r="E82">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
         <v>84</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C83" t="s">
+        <v>172</v>
+      </c>
+      <c r="D83" t="s">
+        <v>258</v>
+      </c>
+      <c r="E83">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
         <v>85</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C84" t="s">
+        <v>151</v>
+      </c>
+      <c r="D84" t="s">
+        <v>259</v>
+      </c>
+      <c r="E84">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
+      <c r="C85" t="s">
+        <v>173</v>
+      </c>
+      <c r="D85" t="s">
+        <v>260</v>
+      </c>
+      <c r="E85">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
         <v>87</v>
       </c>
-      <c r="B31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="C86" t="s">
+        <v>174</v>
+      </c>
+      <c r="D86" t="s">
+        <v>261</v>
+      </c>
+      <c r="E86">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
+      <c r="C87" t="s">
+        <v>175</v>
+      </c>
+      <c r="D87" t="s">
+        <v>262</v>
+      </c>
+      <c r="E87">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>275</v>
+      </c>
+      <c r="C88" t="s">
+        <v>176</v>
+      </c>
+      <c r="E88">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
         <v>89</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C89" t="s">
+        <v>119</v>
+      </c>
+      <c r="D89" t="s">
+        <v>263</v>
+      </c>
+      <c r="E89">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
         <v>90</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C90" t="s">
+        <v>177</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E90">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
+      <c r="C91" t="s">
+        <v>178</v>
+      </c>
+      <c r="D91" t="s">
+        <v>264</v>
+      </c>
+      <c r="E91">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
         <v>92</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C92" t="s">
+        <v>179</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E92">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
         <v>93</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C93" t="s">
+        <v>148</v>
+      </c>
+      <c r="D93" t="s">
+        <v>265</v>
+      </c>
+      <c r="E93">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
+      <c r="C94" t="s">
+        <v>119</v>
+      </c>
+      <c r="D94" t="s">
+        <v>266</v>
+      </c>
+      <c r="E94">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
         <v>95</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C95" t="s">
+        <v>180</v>
+      </c>
+      <c r="D95" t="s">
+        <v>267</v>
+      </c>
+      <c r="E95">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
         <v>96</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C96" t="s">
+        <v>278</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E96">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
+      <c r="C97" t="s">
+        <v>181</v>
+      </c>
+      <c r="D97" t="s">
+        <v>268</v>
+      </c>
+      <c r="E97">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
         <v>98</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C98" t="s">
+        <v>176</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E98">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
         <v>99</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C99" t="s">
+        <v>182</v>
+      </c>
+      <c r="D99" t="s">
+        <v>269</v>
+      </c>
+      <c r="E99">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>101</v>
-      </c>
-      <c r="B36" t="s">
-        <v>102</v>
-      </c>
-      <c r="C36" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>104</v>
-      </c>
-      <c r="B37" t="s">
-        <v>105</v>
-      </c>
-      <c r="C37" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>107</v>
-      </c>
-      <c r="B38" t="s">
-        <v>108</v>
-      </c>
-      <c r="C38" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>110</v>
-      </c>
-      <c r="B39" t="s">
-        <v>111</v>
-      </c>
-      <c r="C39" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>113</v>
-      </c>
-      <c r="B40" t="s">
-        <v>114</v>
-      </c>
-      <c r="C40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>116</v>
-      </c>
-      <c r="B41" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>118</v>
-      </c>
-      <c r="B42" t="s">
-        <v>119</v>
-      </c>
-      <c r="C42" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>121</v>
-      </c>
-      <c r="B43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>123</v>
-      </c>
-      <c r="B44" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>126</v>
-      </c>
-      <c r="B45" t="s">
-        <v>127</v>
-      </c>
-      <c r="C45" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>129</v>
-      </c>
-      <c r="B46" t="s">
-        <v>130</v>
-      </c>
-      <c r="C46" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>132</v>
-      </c>
-      <c r="B47" t="s">
-        <v>133</v>
-      </c>
-      <c r="C47" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>135</v>
-      </c>
-      <c r="B48" t="s">
-        <v>136</v>
-      </c>
-      <c r="C48" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>138</v>
-      </c>
-      <c r="B49" t="s">
-        <v>139</v>
-      </c>
-      <c r="C49" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>141</v>
-      </c>
-      <c r="B50" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>143</v>
-      </c>
-      <c r="B51" t="s">
-        <v>144</v>
-      </c>
-      <c r="C51" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>146</v>
-      </c>
-      <c r="B52" t="s">
-        <v>147</v>
-      </c>
-      <c r="C52" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>149</v>
-      </c>
-      <c r="B53" t="s">
-        <v>150</v>
-      </c>
-      <c r="C53" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>152</v>
-      </c>
-      <c r="B54" t="s">
-        <v>153</v>
-      </c>
-      <c r="C54" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>155</v>
-      </c>
-      <c r="B55" t="s">
-        <v>156</v>
-      </c>
-      <c r="C55" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>158</v>
-      </c>
-      <c r="B56" t="s">
-        <v>159</v>
-      </c>
-      <c r="C56" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>161</v>
-      </c>
-      <c r="B57" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>163</v>
-      </c>
-      <c r="B58" t="s">
-        <v>164</v>
-      </c>
-      <c r="C58" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>166</v>
-      </c>
-      <c r="B59" t="s">
-        <v>167</v>
-      </c>
-      <c r="C59" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>169</v>
-      </c>
-      <c r="B60" t="s">
-        <v>170</v>
-      </c>
-      <c r="C60" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>172</v>
-      </c>
-      <c r="B61" t="s">
-        <v>173</v>
-      </c>
-      <c r="C61" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>175</v>
-      </c>
-      <c r="B62" t="s">
-        <v>176</v>
-      </c>
-      <c r="C62" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>178</v>
-      </c>
-      <c r="B63" t="s">
-        <v>179</v>
-      </c>
-      <c r="C63" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>181</v>
-      </c>
-      <c r="B64" t="s">
-        <v>34</v>
-      </c>
-      <c r="C64" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
+      <c r="C100" t="s">
         <v>183</v>
       </c>
-      <c r="B65" t="s">
-        <v>184</v>
-      </c>
-      <c r="C65" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>186</v>
-      </c>
-      <c r="B66" t="s">
-        <v>187</v>
-      </c>
-      <c r="C66" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>189</v>
-      </c>
-      <c r="B67" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>191</v>
-      </c>
-      <c r="B68" t="s">
-        <v>192</v>
-      </c>
-      <c r="C68" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>194</v>
-      </c>
-      <c r="B69" t="s">
-        <v>195</v>
-      </c>
-      <c r="C69" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>197</v>
-      </c>
-      <c r="B70" t="s">
-        <v>187</v>
-      </c>
-      <c r="C70" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>199</v>
-      </c>
-      <c r="B71" t="s">
-        <v>34</v>
-      </c>
-      <c r="C71" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>201</v>
-      </c>
-      <c r="B72" t="s">
-        <v>124</v>
-      </c>
-      <c r="C72" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>203</v>
-      </c>
-      <c r="B73" t="s">
-        <v>204</v>
-      </c>
-      <c r="C73" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>206</v>
-      </c>
-      <c r="B74" t="s">
-        <v>207</v>
-      </c>
-      <c r="C74" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>209</v>
-      </c>
-      <c r="B75" t="s">
-        <v>25</v>
-      </c>
-      <c r="C75" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>211</v>
-      </c>
-      <c r="B76" t="s">
-        <v>212</v>
-      </c>
-      <c r="C76" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>214</v>
-      </c>
-      <c r="B77" t="s">
-        <v>215</v>
-      </c>
-      <c r="C77" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>217</v>
-      </c>
-      <c r="B78" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>219</v>
-      </c>
-      <c r="B79" t="s">
-        <v>220</v>
-      </c>
-      <c r="C79" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>222</v>
-      </c>
-      <c r="B80" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>224</v>
-      </c>
-      <c r="B81" t="s">
-        <v>54</v>
-      </c>
-      <c r="C81" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>226</v>
-      </c>
-      <c r="B82" t="s">
-        <v>227</v>
-      </c>
-      <c r="C82" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>229</v>
-      </c>
-      <c r="B83" t="s">
+      <c r="D100" t="s">
+        <v>270</v>
+      </c>
+      <c r="E100">
         <v>230</v>
       </c>
-      <c r="C83" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>232</v>
-      </c>
-      <c r="B84" t="s">
-        <v>159</v>
-      </c>
-      <c r="C84" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>234</v>
-      </c>
-      <c r="B85" t="s">
-        <v>235</v>
-      </c>
-      <c r="C85" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>237</v>
-      </c>
-      <c r="B86" t="s">
-        <v>238</v>
-      </c>
-      <c r="C86" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>240</v>
-      </c>
-      <c r="B87" t="s">
-        <v>241</v>
-      </c>
-      <c r="C87" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>243</v>
-      </c>
-      <c r="B88" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>245</v>
-      </c>
-      <c r="B89" t="s">
-        <v>59</v>
-      </c>
-      <c r="C89" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
-        <v>247</v>
-      </c>
-      <c r="B90" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>249</v>
-      </c>
-      <c r="B91" t="s">
-        <v>250</v>
-      </c>
-      <c r="C91" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>252</v>
-      </c>
-      <c r="B92" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
-        <v>254</v>
-      </c>
-      <c r="B93" t="s">
-        <v>150</v>
-      </c>
-      <c r="C93" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
-        <v>256</v>
-      </c>
-      <c r="B94" t="s">
-        <v>59</v>
-      </c>
-      <c r="C94" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>258</v>
-      </c>
-      <c r="B95" t="s">
-        <v>259</v>
-      </c>
-      <c r="C95" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
-        <v>261</v>
-      </c>
-      <c r="B96" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
-        <v>263</v>
-      </c>
-      <c r="B97" t="s">
-        <v>264</v>
-      </c>
-      <c r="C97" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
-        <v>266</v>
-      </c>
-      <c r="B98" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>267</v>
-      </c>
-      <c r="B99" t="s">
-        <v>268</v>
-      </c>
-      <c r="C99" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
-        <v>270</v>
-      </c>
-      <c r="B100" t="s">
-        <v>271</v>
-      </c>
-      <c r="C100" t="s">
-        <v>272</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>